--- a/Spatial/PDFs_ctrl/figure_speed_AD_Ctrl_RANOVA_multcompare.xlsx
+++ b/Spatial/PDFs_ctrl/figure_speed_AD_Ctrl_RANOVA_multcompare.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\samsoon.inayat\T_Drive\GitHub\Toolbox_2P\Spatial\PDFs_ctrl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Users\samsoon.inayat\S_Drive\GitHub\Toolbox_2P\Spatial\PDFs_ctrl\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C12F1E1E-C52A-4008-9C1D-82BE12A258B0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385" xr2:uid="{6A3054A7-9669-450D-B2D7-AABABD8D5D3C}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11385"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -64,7 +63,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -409,7 +408,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F20F3EA6-3ED6-4193-A7FC-AA962C5D4D8B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -664,7 +663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEDDA44B-0109-4482-96B6-533404D37614}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -676,7 +675,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0DF33CF-9ADB-4919-9363-F97E67D767C9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
